--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-06-23.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-06-23.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="40">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -97,7 +97,7 @@
     <t>Gaïa promenade</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>19 personnes 1ère arrivée de Taxi Beach dont 5 allant à Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>(+ 7 pour Saleccia)</t>
@@ -3250,7 +3247,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3333,7 +3330,7 @@
     <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -3367,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3426,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3470,7 +3467,7 @@
     <row r="11" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -3567,7 +3564,7 @@
     <row r="16" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -3658,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3679,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3704,7 +3701,7 @@
     <row r="23" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3799,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -3839,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3938,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -3997,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4043,7 +4040,7 @@
     <row r="40" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -4077,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4179,7 +4176,7 @@
     <row r="47" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -4272,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -4312,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4390,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4415,7 +4412,7 @@
     <row r="59" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -4513,7 +4510,7 @@
     <row r="64" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
@@ -4646,7 +4643,7 @@
     <row r="71" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="6">
         <v>0</v>
@@ -4743,7 +4740,7 @@
     <row r="76" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C76" s="6">
         <v>0</v>
@@ -4876,7 +4873,7 @@
     <row r="83" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -4973,7 +4970,7 @@
     <row r="88" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
@@ -5106,7 +5103,7 @@
     <row r="95" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="6">
         <v>0</v>
